--- a/biology/Histoire de la zoologie et de la botanique/Győző_Szépligeti/Győző_Szépligeti.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Győző_Szépligeti/Győző_Szépligeti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gy%C5%91z%C5%91_Sz%C3%A9pligeti</t>
+          <t>Győző_Szépligeti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Győző (ou en français Viktor) Szépligeti, né Schönbauer, est un naturaliste hongrois, né le 21 août 1855 à Zirc et mort le 24 mars 1915 à Budapest[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Győző (ou en français Viktor) Szépligeti, né Schönbauer, est un naturaliste hongrois, né le 21 août 1855 à Zirc et mort le 24 mars 1915 à Budapest.
 Il étudie à l’université de Budapest avant d’y enseigner la chimie et l’histoire naturelle de 1877 à 1912, date de sa retraite. Il travaille sur les hyménoptères.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gy%C5%91z%C5%91_Sz%C3%A9pligeti</t>
+          <t>Győző_Szépligeti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est coauteur de la description de Erysimum pallidiflorum Szépl. &amp; Jáv., famille des Brassicaceae, synonyme de Erysimum witmannii Zaw.
 Szépl. est l’abréviation botanique standard de Győző Szépligeti.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gy%C5%91z%C5%91_Sz%C3%A9pligeti</t>
+          <t>Győző_Szépligeti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : viii + 380.</t>
         </is>
